--- a/Testing_Outputs/p_values_df.xlsx
+++ b/Testing_Outputs/p_values_df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,561 +449,681 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>total intl calls</t>
+          <t>account length</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.353200262072089e-11</v>
+        <v>0.618749423831927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>customer service calls</t>
+          <t>area code</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.911317618024164e-32</v>
+        <v>0.1755715912057391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>state_AL</t>
+          <t>number vmail messages</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.877129198337214e-37</v>
+        <v>0.2612197823684095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>state_AR</t>
+          <t>total day minutes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.393068370538693e-34</v>
+        <v>0.5567656128492973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>state_AZ</t>
+          <t>total day calls</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.066097107041849e-24</v>
+        <v>0.999212481607227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>state_CA</t>
+          <t>total day charge</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.661570767289319e-20</v>
+        <v>0.5546343100421063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>state_CO</t>
+          <t>total eve minutes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.048881727527737e-44</v>
+        <v>0.5036462596254507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>state_CT</t>
+          <t>total eve calls</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.337831521747359e-39</v>
+        <v>0.6754143481775163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>state_DC</t>
+          <t>total eve charge</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.164652159729972e-27</v>
+        <v>0.505816020798972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>state_DE</t>
+          <t>total night minutes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.319104806380635e-33</v>
+        <v>0.7884330418714791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>state_FL</t>
+          <t>total night calls</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.964242584002645e-34</v>
+        <v>0.6272286158832441</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>state_GA</t>
+          <t>total night charge</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.416633617946666e-34</v>
+        <v>0.7905487940871809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>state_HI</t>
+          <t>total intl minutes</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.486295069201069e-22</v>
+        <v>0.5134010787412948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>state_IA</t>
+          <t>total intl calls</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.638981715012669e-29</v>
+        <v>0.0004940911201804603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>state_ID</t>
+          <t>total intl charge</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.247570575545092e-39</v>
+        <v>0.5045422202996924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>state_IL</t>
+          <t>customer service calls</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.334465284989813e-28</v>
+        <v>2.014851537613125e-31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>state_IN</t>
+          <t>state_AL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.831511259156277e-44</v>
+        <v>0.6970260803491432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>state_KS</t>
+          <t>state_AR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.113647062164041e-37</v>
+        <v>0.162319373839101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>state_KY</t>
+          <t>state_AZ</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.156729498566783e-38</v>
+        <v>0.9047255543476376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>state_LA</t>
+          <t>state_CA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.347672079404688e-25</v>
+        <v>0.09422164837379074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>state_MA</t>
+          <t>state_CO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.520000708132729e-35</v>
+        <v>0.6858804230340299</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>state_MD</t>
+          <t>state_CT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.626018722961599e-47</v>
+        <v>0.3685385177317142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state_ME</t>
+          <t>state_DC</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.835774945242606e-36</v>
+        <v>0.4838804837391265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>state_MI</t>
+          <t>state_DE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.662564850608184e-40</v>
+        <v>0.6360721993281824</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>state_MN</t>
+          <t>state_FL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.841047993513456e-46</v>
+        <v>0.5710971916962286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>state_MO</t>
+          <t>state_GA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.184386677221204e-33</v>
+        <v>0.3747680576276721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>state_MS</t>
+          <t>state_HI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.258904542487062e-34</v>
+        <v>0.8268304884089694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>state_MT</t>
+          <t>state_IA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.866865857003822e-35</v>
+        <v>0.7608603210606213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>state_NC</t>
+          <t>state_ID</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.149357749002879e-40</v>
+        <v>0.4920359489092914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>state_ND</t>
+          <t>state_IL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.396028326322934e-20</v>
+        <v>0.6651257492817171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>state_NE</t>
+          <t>state_IN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.290453645960113e-31</v>
+        <v>0.3447558816690014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>state_NH</t>
+          <t>state_KS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.66170667063879e-30</v>
+        <v>0.1430030367101547</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>state_NJ</t>
+          <t>state_KY</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.881469279530061e-35</v>
+        <v>0.3374624985146817</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>state_NM</t>
+          <t>state_LA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.574860128306542e-38</v>
+        <v>0.7803175270644477</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>state_NV</t>
+          <t>state_MA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.252537472606809e-38</v>
+        <v>0.2098944671863514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>state_NY</t>
+          <t>state_MD</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.87064606536884e-41</v>
+        <v>0.194345910941528</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>state_OH</t>
+          <t>state_ME</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.532411352978324e-45</v>
+        <v>0.1299027270555163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>state_OK</t>
+          <t>state_MI</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.906561717646516e-33</v>
+        <v>0.136864695922158</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>state_OR</t>
+          <t>state_MN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.074493462682993e-42</v>
+        <v>0.1290019358769884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>state_PA</t>
+          <t>state_MO</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.261373820175389e-30</v>
+        <v>0.6421742855925545</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>state_RI</t>
+          <t>state_MS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.044855752628666e-27</v>
+        <v>0.132025602659215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>state_SC</t>
+          <t>state_MT</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.091371920848299e-33</v>
+        <v>0.02517641351836028</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>state_SD</t>
+          <t>state_NC</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.900703763417346e-38</v>
+        <v>0.394663583454412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>state_TN</t>
+          <t>state_ND</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.685378155343085e-30</v>
+        <v>0.2616831175805669</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>state_TX</t>
+          <t>state_NE</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.000254933214769e-38</v>
+        <v>0.5251130656192844</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>state_UT</t>
+          <t>state_NH</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.434869850437682e-34</v>
+        <v>0.3621499842808064</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>state_VA</t>
+          <t>state_NJ</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.512253123566321e-37</v>
+        <v>0.05626127379734046</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>state_VT</t>
+          <t>state_NM</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.449033611407064e-25</v>
+        <v>0.5664634943029054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>state_WA</t>
+          <t>state_NV</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9.93151691229049e-40</v>
+        <v>0.08851474616398064</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>state_WI</t>
+          <t>state_NY</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.491034944928345e-43</v>
+        <v>0.3116786033585975</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>state_WV</t>
+          <t>state_OH</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.288244488579904e-49</v>
+        <v>0.4382926312016825</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>state_WY</t>
+          <t>state_OK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.078681276713084e-41</v>
+        <v>0.466540765389497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>international plan_yes</t>
+          <t>state_OR</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.967133364660725e-35</v>
+        <v>0.2634230725072927</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>voice mail plan_yes</t>
+          <t>state_PA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.529326909763423e-24</v>
+        <v>0.1241371929968588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>area code_415</t>
+          <t>state_RI</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.236164446285133e-06</v>
+        <v>0.9909461665128999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>area code_510</t>
+          <t>state_SC</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8.871616634283726e-05</v>
+        <v>0.02675117425116343</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>state_SD</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.607318396585864</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>state_TN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7947247306976347</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>state_TX</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.02489372190493381</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>state_UT</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3847161698130366</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>state_VA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8706195622169357</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>state_VT</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3973434142641544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>state_WA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1305912349499631</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>state_WI</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5716562430789561</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>state_WV</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4634809786513739</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>state_WY</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6569359262323248</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>international plan_yes</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.120442939850355e-38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>voice mail plan_yes</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01132220442571146</v>
       </c>
     </row>
   </sheetData>
